--- a/src/main/resources/menual/bidProgressDetail.xlsx
+++ b/src/main/resources/menual/bidProgressDetail.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>전자 입찰 요청서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,10 +102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개찰자/낙찰자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입찰공고자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -127,6 +123,14 @@
   </si>
   <si>
     <t>내역사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개찰자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낙찰자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -136,7 +140,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0_);[Red]\(&quot;₩&quot;#,##0\)"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -336,10 +340,22 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -348,6 +364,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -356,36 +390,6 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -675,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:K16"/>
+      <selection activeCell="B22" sqref="B22:K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -687,122 +691,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
     <row r="3" spans="1:11" ht="13.5" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="12"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="8"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="12"/>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="12"/>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="8"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="12"/>
     </row>
     <row r="9" spans="1:11" ht="50.25" customHeight="1">
       <c r="A9" s="4" t="s">
@@ -823,303 +827,303 @@
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="8"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="12"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="8"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="12"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="11"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="8"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="21"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="8"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="8"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="12"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="8"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="12"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
+        <v>25</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="12"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="8"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="12"/>
     </row>
     <row r="24" spans="1:11">
       <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12"/>
     </row>
     <row r="25" spans="1:11">
       <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="8"/>
+        <v>20</v>
+      </c>
+      <c r="B25" s="10"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="12"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="B26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="12"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="12"/>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="64.5" customHeight="1">
+      <c r="A29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-    </row>
-    <row r="28" spans="1:11" ht="64.5" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="15"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K3"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:K20"/>
-    <mergeCell ref="B21:K21"/>
+  <mergeCells count="27">
     <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B9:K9"/>
-    <mergeCell ref="B10:K10"/>
     <mergeCell ref="A18:K19"/>
     <mergeCell ref="B4:K4"/>
     <mergeCell ref="B5:K5"/>
@@ -1130,6 +1134,22 @@
     <mergeCell ref="B12:K12"/>
     <mergeCell ref="B13:K13"/>
     <mergeCell ref="B14:K14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K3"/>
+    <mergeCell ref="B29:K29"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B9:K9"/>
+    <mergeCell ref="B10:K10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
